--- a/src/main/webapp/excel/importArticle.xlsx
+++ b/src/main/webapp/excel/importArticle.xlsx
@@ -2,70 +2,429 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhaozhirong\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhaozhirong\Desktop\系统\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23900" windowHeight="10350"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23730" windowHeight="13050"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="savedrecs (13)" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>标题</t>
-  </si>
-  <si>
-    <t>作者</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>组织名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>来源</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发表年份</t>
-  </si>
-  <si>
-    <t>学科领域</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>影响因子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>统计年份</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>引用次数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="133">
+  <si>
+    <t>PT</t>
+  </si>
+  <si>
+    <t>AU</t>
+  </si>
+  <si>
+    <t>BA</t>
+  </si>
+  <si>
+    <t>BE</t>
+  </si>
+  <si>
+    <t>GP</t>
+  </si>
+  <si>
+    <t>AF</t>
+  </si>
+  <si>
+    <t>BF</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>TI</t>
+  </si>
+  <si>
+    <t>SO</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>BS</t>
+  </si>
+  <si>
+    <t>LA</t>
+  </si>
+  <si>
+    <t>DT</t>
+  </si>
+  <si>
+    <t>CT</t>
+  </si>
+  <si>
+    <t>CY</t>
+  </si>
+  <si>
+    <t>CL</t>
+  </si>
+  <si>
+    <t>SP</t>
+  </si>
+  <si>
+    <t>HO</t>
+  </si>
+  <si>
+    <t>DE</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>AB</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>RP</t>
+  </si>
+  <si>
+    <t>EM</t>
+  </si>
+  <si>
+    <t>RI</t>
+  </si>
+  <si>
+    <t>OI</t>
+  </si>
+  <si>
+    <t>FU</t>
+  </si>
+  <si>
+    <t>FX</t>
+  </si>
+  <si>
+    <t>CR</t>
+  </si>
+  <si>
+    <t>NR</t>
+  </si>
+  <si>
+    <t>TC</t>
+  </si>
+  <si>
+    <t>Z9</t>
+  </si>
+  <si>
+    <t>U1</t>
+  </si>
+  <si>
+    <t>U2</t>
+  </si>
+  <si>
+    <t>PU</t>
+  </si>
+  <si>
+    <t>PI</t>
+  </si>
+  <si>
+    <t>PA</t>
+  </si>
+  <si>
+    <t>SN</t>
+  </si>
+  <si>
+    <t>EI</t>
+  </si>
+  <si>
+    <t>BN</t>
+  </si>
+  <si>
+    <t>J9</t>
+  </si>
+  <si>
+    <t>JI</t>
+  </si>
+  <si>
+    <t>PD</t>
+  </si>
+  <si>
+    <t>PY</t>
+  </si>
+  <si>
+    <t>VL</t>
+  </si>
+  <si>
+    <t>IS</t>
+  </si>
+  <si>
+    <t>PN</t>
+  </si>
+  <si>
+    <t>SU</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t>MA</t>
+  </si>
+  <si>
+    <t>BP</t>
+  </si>
+  <si>
+    <t>EP</t>
+  </si>
+  <si>
+    <t>AR</t>
+  </si>
+  <si>
+    <t>DI</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>EA</t>
+  </si>
+  <si>
+    <t>EY</t>
+  </si>
+  <si>
+    <t>PG</t>
+  </si>
+  <si>
+    <t>WC</t>
+  </si>
+  <si>
+    <t>SC</t>
+  </si>
+  <si>
+    <t>GA</t>
+  </si>
+  <si>
+    <t>UT</t>
+  </si>
+  <si>
+    <t>PM</t>
+  </si>
+  <si>
+    <t>OA</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>HP</t>
+  </si>
+  <si>
+    <t>DA</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>Zhang, T; Li, G; Lai, KK; Leung, JWK</t>
+  </si>
+  <si>
+    <t>Zhang, Tao; Li, Gang; Lai, Kin Keung; Leung, John W. K.</t>
+  </si>
+  <si>
+    <t>Information disclosure strategies for the intermediary and competitive sellers</t>
+  </si>
+  <si>
+    <t>EUROPEAN JOURNAL OF OPERATIONAL RESEARCH</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>Article</t>
+  </si>
+  <si>
+    <t>OR in marketing; Product information disclosure; Competitive strategy; Online shopping intermediary</t>
+  </si>
+  <si>
+    <t>SUPPLY CHAIN COORDINATION; PRODUCT QUALITY; RETAILER; RETURNS; REVELATION; GUARANTEES; COMMITMENT; ECONOMICS; CONSUMERS; MODELS</t>
+  </si>
+  <si>
+    <t>Product information plays an important role in consumers' purchase decisions. In this paper, we develop an analytical model to investigate how the intermediary and sellers manage consumer uncertainty and returns/exchanges by disclosing product information. We find, given the information disclosure tools, the competitive sellers always choose to disclose as much information as possible. By analyzing the intermediary's decision on the development of information tools, our results suggest that the intermediary's optimal information strategy is determined by the disclosure cost and product characteristics (i.e., product value and return cost). The intermediary is likely to invest more to develop information tools if the cost coefficient is low or if the product has a relatively high return cost compared with its value. As a result, the information tools developed by the intermediary facilitate sellers' information disclosure at a high level. Moreover, considering particular product characteristics and information disclosure cost, we examine the role of revenue sharing fraction between the intermediary and sellers. Our findings suggest that a modified revenue sharing fraction can facilitate firms' Pareto improvement and lead to an information-rich platform. (C) 2018 Elsevier B.V. All rights reserved.</t>
+  </si>
+  <si>
+    <t>[Zhang, Tao; Li, Gang] Xi An Jiao Tong Univ, Sch Management, State Key Lab Mfg Syst Engn, Key Lab Minist Educ Proc Control &amp; Efficiency Eng, Xian 710049, Shaanxi, Peoples R China; [Zhang, Tao] City Univ Hong Kong, Coll Business, Dept Management Sci, Hong Kong, Hong Kong, Peoples R China; [Lai, Kin Keung] Shenzhen Univ, Coll Econ, Shenzhen 518060, Peoples R China; [Lai, Kin Keung] Shaanxi Normal Univ, Int Business Sch, Xian 710062, Shaanxi, Peoples R China; [Leung, John W. K.] City Univ Hong Kong, Coll Business, Dept Mkt, Kowloon, Hong Kong, Peoples R China</t>
+  </si>
+  <si>
+    <t>Li, G (reprint author), Xi An Jiao Tong Univ, Sch Management, State Key Lab Mfg Syst Engn, Key Lab Minist Educ Proc Control &amp; Efficiency Eng, Xian 710049, Shaanxi, Peoples R China.</t>
+  </si>
+  <si>
+    <t>zhangtao05@stu.xjtu.edu.cn; glee@mail.xjtu.edu.cn; mskklai@cityu.edu.hk; mkjleung@cityu.edu.hk</t>
+  </si>
+  <si>
+    <t>National Natural Science Foundation of China [71571140]</t>
+  </si>
+  <si>
+    <t>We thank the referees for their helpful comments on an earlier version of this paper. We are grateful for the financial support from the National Natural Science Foundation of China (grant number 71571140).</t>
+  </si>
+  <si>
+    <t>ELSEVIER SCIENCE BV</t>
+  </si>
+  <si>
+    <t>AMSTERDAM</t>
+  </si>
+  <si>
+    <t>PO BOX 211, 1000 AE AMSTERDAM, NETHERLANDS</t>
+  </si>
+  <si>
+    <t>0377-2217</t>
+  </si>
+  <si>
+    <t>1872-6860</t>
+  </si>
+  <si>
+    <t>EUR J OPER RES</t>
+  </si>
+  <si>
+    <t>Eur. J. Oper. Res.</t>
+  </si>
+  <si>
+    <t>10.1016/j.ejor.2018.06.037</t>
+  </si>
+  <si>
+    <t>Management; Operations Research &amp; Management Science</t>
+  </si>
+  <si>
+    <t>Business &amp; Economics; Operations Research &amp; Management Science</t>
+  </si>
+  <si>
+    <t>GQ9BI</t>
+  </si>
+  <si>
+    <t>WOS:000442060500026</t>
+  </si>
+  <si>
+    <t>Cheng, HP; Hu, MC; Zhai, QG; Li, SN; Jiang, YC</t>
+  </si>
+  <si>
+    <t>Cheng, Hanping; Hu, Mancheng; Zhai, Quanguo; Li, Shuni; Jiang, Yucheng</t>
+  </si>
+  <si>
+    <t>Polydopamine tethered CPO/HRP-TiO2 nano-composites with high bio-catalytic activity, stability and reusability: Enzyme-photo bifunctional synergistic catalysis in water treatment</t>
+  </si>
+  <si>
+    <t>CHEMICAL ENGINEERING JOURNAL</t>
+  </si>
+  <si>
+    <t>Bifunctional catalysis; Synergistic effect; CPO/HRP enzymatic catalysis; TiO2 photocatalysis; Water treatment</t>
+  </si>
+  <si>
+    <t>SENSITIZED SOLAR-CELLS; SODIUM-ION BATTERIES; GRAPHENE OXIDE; MAGNETIC NANOPARTICLES; HIGH-PERFORMANCE; GLUCOSE-OXIDASE; IMMOBILIZATION; TIO2; CHLOROPEROXIDASE; HYBRID</t>
+  </si>
+  <si>
+    <t>An enzyme-TiO2 composite with high catalytic activity, stability at harsh reaction condition, and good reusability was prepared via modification of TiO2 by polydopamine (PDA) to tethering with chloroperoxidase (CPO) or horseradish peroxidase (HRP) through glutaraldehyde. TiO2 played both roles of solid carrier and photocatalyst in the application of soluble dyes decolorization, and in this way, the loss of enzymatic activity during enzyme immobilization can be compensated. Because the enzyme and TiO2 were included in same composites, an enzyme-photo bifunctional synergistic catalysis was observed due to the interaction between enzyme and TiO2, resulting in that the formation of catalytic intermidiate, center dot OH, increased and the band gap energy of TiO2 became narrow. The light absorption by TiO2 was extended from the UV region to the visible region through coated by PDA and CPO/HRP so as that CPO/ HRP-TiO2@PDA can be used under visible light irradiation instead of ultraviolet light irradiation, which can avoid the decrease of enzyme activity by ultraviolet light irradiation. HRP-TiO2@PDA composite had even the best resuability of enzyme immobilized on solid support compared with the data in reference, in our best knowledge. There was no activity loss of HRP-TiO2@PDA after 15 times use, and more than 90% activity can be remained after 25 times use. Even after 40 times use, the relative activity of HRP-TiO2@PDA was 63.6% of that in the first run. The difference of reusability between CPO and HRP have relationship with the distribution of function group among the surface of enzyme molecule.</t>
+  </si>
+  <si>
+    <t>[Cheng, Hanping; Hu, Mancheng; Zhai, Quanguo; Li, Shuni; Jiang, Yucheng] Shaanxi Normal Univ, Sch Chem &amp; Chem Engn, Xian 710062, Shaanxi, Peoples R China; [Hu, Mancheng; Zhai, Quanguo; Li, Shuni; Jiang, Yucheng] Shaanxi Normal Univ, Key Lab Macromol Sci Shaanxi Prov, Xian 710062, Shaanxi, Peoples R China</t>
+  </si>
+  <si>
+    <t>Li, SN; Jiang, YC (reprint author), Shaanxi Normal Univ, Sch Chem &amp; Chem Engn, Xian 710062, Shaanxi, Peoples R China.</t>
+  </si>
+  <si>
+    <t>hmch@snnu.edu.cn; zhaiqg@snnu.edu.cn; lishuni@snnu.edu.cn; jyc@snnu.edu.cn</t>
+  </si>
+  <si>
+    <t>National Natural Science Foundation of China [21176150]; Fundamental Research Funds for the Chinese Central Universities [GK201701003]</t>
+  </si>
+  <si>
+    <t>This work is supported by the National Natural Science Foundation of China (21176150) and the Fundamental Research Funds for the Chinese Central Universities (GK201701003).</t>
+  </si>
+  <si>
+    <t>ELSEVIER SCIENCE SA</t>
+  </si>
+  <si>
+    <t>LAUSANNE</t>
+  </si>
+  <si>
+    <t>PO BOX 564, 1001 LAUSANNE, SWITZERLAND</t>
+  </si>
+  <si>
+    <t>1385-8947</t>
+  </si>
+  <si>
+    <t>1873-3212</t>
+  </si>
+  <si>
+    <t>CHEM ENG J</t>
+  </si>
+  <si>
+    <t>Chem. Eng. J.</t>
+  </si>
+  <si>
+    <t>10.1016/j.cej.2018.04.083</t>
+  </si>
+  <si>
+    <t>Engineering, Environmental; Engineering, Chemical</t>
+  </si>
+  <si>
+    <t>Engineering</t>
+  </si>
+  <si>
+    <t>GG7NL</t>
+  </si>
+  <si>
+    <t>WOS:000432884900069</t>
+  </si>
+  <si>
+    <t>Zhu, YP; Zhu, RL; Xi, YF; Xu, TY; Yan, LX; Zhu, JX; Zhu, GQ; He, HP</t>
+  </si>
+  <si>
+    <t>Zhu, Yanping; Zhu, Runliang; Xi, Yunfei; Xu, Tianyuan; Yan, Lixia; Zhu, Jianxi; Zhu, Gangqiang; He, Hongping</t>
+  </si>
+  <si>
+    <t>Heterogeneous photo-Fenton degradation of bisphenol A over Ag/AgCl/ferrihydrite catalysts under visible light</t>
+  </si>
+  <si>
+    <t>Ag/AgCl; Ferrihydrite; Photo-Fenton; Surface plasmon resonance; Photo-generated electrons</t>
+  </si>
+  <si>
+    <t>PLASMONIC PHOTOCATALYTIC ACTIVITY; ADVANCED OXIDATION PROCESSES; ZERO-VALENT IRON; FACILE SYNTHESIS; METHYL-ORANGE; RHODAMINE 6G; WASTE-WATER; NEUTRAL PH; FERRIHYDRITE; AGCL</t>
+  </si>
+  <si>
+    <t>The conventional heterogeneous Fenton reaction is often confined by the lower regeneration of Fe2+, which then inhibits the decomposition of H2O2 and the generation of center dot OH. Here we propose a novel idea to significantly accelerate the redox cycling of Fe2+/Fe3+ in heterogeneous Fenton reaction by introducing photo-generated electrons from plasmonic particles. Towards this aim, novel plasmonic Ag/AgCl nanoparticles coated ferrihydrite (Ag/AgCl/Fh) have been synthesized. Compared with pure Fh, a remarkable enhancement in the photo-Fenton degradation towards bisphenol (BPA) can be observed for all Ag/AgCl/Fh samples under visible light. Noticeably, the rate constant of 6% Ag/AgCl/Fh is 0.0506 min(-1), which is about 5.1 times as high as that of pure Fh (0.0099 min(-1)). Moreover, the catalytic activity of 6% Ag/AgCl/Fh on the degradation of BPA remains quite efficient with a low Fe leaching after 4 recycles. The results of the effect of initial pH indicates that Ag/AgCl/Fh samples exhibit relatively high photo-Fenton catalytic activity even at pH 6. The electron spin resonance (ESR) analysis reveals that center dot OH plays a significant role in the photo-Fenton reaction. The concentration of center dot OH can even reach 267.6 mu mol/L after 60 min, which is much higher than that of pure Fh (69.2 mu mol/L). The measurement of Fe2+ concentration and the XPS Fe2p spectra of Ag/AgCl/Fh before and after the degradation of BPA indicate the loading of Ag/AgCl can accelerate the conversion of Fe3+/Fe2+ by the photo generated electrons from Ag nanoparticles due to the surface plasmon resonance (SPR) effect under the visible light irradiation.</t>
+  </si>
+  <si>
+    <t>[Zhu, Yanping; Zhu, Runliang; Xu, Tianyuan; Yan, Lixia; Zhu, Jianxi; He, Hongping] Chinese Acad Sci, Guangdong Prov Key Lab Mineral Phys &amp; Mat Res &amp; D, CAS Key Lab Mineral &amp; Metallogeny, Guangzhou Inst Geochem, Guangzhou 510640, Guangdong, Peoples R China; [Zhu, Yanping; Xu, Tianyuan; Yan, Lixia] Univ Chinese Acad Sci, Beijing 100049, Peoples R China; [Xi, Yunfei] Queensland Univ Technol, Inst Future Environm, Brisbane, Qld 4001, Australia; [Zhu, Gangqiang] Shaanxi Normal Univ, Sch Phys &amp; Informat Technol, Xian 710062, Shaanxi, Peoples R China</t>
+  </si>
+  <si>
+    <t>Zhu, RL (reprint author), Chinese Acad Sci, Guangdong Prov Key Lab Mineral Phys &amp; Mat Res &amp; D, CAS Key Lab Mineral &amp; Metallogeny, Guangzhou Inst Geochem, Guangzhou 510640, Guangdong, Peoples R China.; Zhu, GQ (reprint author), Shaanxi Normal Univ, Sch Phys &amp; Informat Technol, Xian 710062, Shaanxi, Peoples R China.</t>
+  </si>
+  <si>
+    <t>zhurl@gig.ac.cn</t>
+  </si>
+  <si>
+    <t>National Natural Science Foundation of China [41572031]; National Program for Support of Topnotch Young Professionals, Guangdong Provincial Program [2014TQ01Z249]; China Scholarship Council</t>
+  </si>
+  <si>
+    <t>This work was financially supported by the National Natural Science Foundation of China (41572031), National Program for Support of Topnotch Young Professionals, Guangdong Provincial Program for Support of Top-notch Young Professionals (2014TQ01Z249), and China Scholarship Council.</t>
+  </si>
+  <si>
+    <t>10.1016/j.cej.2018.04.073</t>
+  </si>
+  <si>
+    <t>GG7KZ</t>
+  </si>
+  <si>
+    <t>WOS:000432878400058</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -76,21 +435,6 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -121,10 +465,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -145,7 +489,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -155,39 +499,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -266,160 +610,131 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -431,115 +746,586 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:BP4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.453125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="14.453125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="16.6328125" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="1"/>
+    <col min="63" max="63" width="21.90625" customWidth="1"/>
+    <col min="68" max="68" width="12.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2">
+    <row r="2" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I2" t="s">
+        <v>71</v>
+      </c>
+      <c r="J2" t="s">
+        <v>72</v>
+      </c>
+      <c r="M2" t="s">
+        <v>73</v>
+      </c>
+      <c r="N2" t="s">
+        <v>74</v>
+      </c>
+      <c r="T2" t="s">
+        <v>75</v>
+      </c>
+      <c r="U2" t="s">
+        <v>76</v>
+      </c>
+      <c r="V2" t="s">
+        <v>77</v>
+      </c>
+      <c r="W2" t="s">
+        <v>78</v>
+      </c>
+      <c r="X2" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>81</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AE2">
+        <v>43</v>
+      </c>
+      <c r="AF2">
+        <v>0</v>
+      </c>
+      <c r="AG2">
+        <v>0</v>
+      </c>
+      <c r="AH2">
+        <v>74</v>
+      </c>
+      <c r="AI2">
+        <v>74</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>83</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>85</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>86</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>87</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>89</v>
+      </c>
+      <c r="AR2" s="1">
+        <v>43450</v>
+      </c>
+      <c r="AS2">
+        <v>2018</v>
+      </c>
+      <c r="AT2">
+        <v>271</v>
+      </c>
+      <c r="AU2">
         <v>3</v>
       </c>
-      <c r="D2" s="2">
-        <v>4</v>
-      </c>
-      <c r="E2" s="2">
-        <v>5</v>
-      </c>
-      <c r="F2" s="2">
-        <v>6</v>
-      </c>
-      <c r="G2" s="2">
-        <v>7</v>
-      </c>
-      <c r="H2" s="2">
+      <c r="AZ2">
+        <v>1156</v>
+      </c>
+      <c r="BA2">
+        <v>1173</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>90</v>
+      </c>
+      <c r="BG2">
+        <v>18</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>93</v>
+      </c>
+      <c r="BK2" t="s">
+        <v>94</v>
+      </c>
+      <c r="BP2" s="2">
+        <v>43426</v>
+      </c>
+    </row>
+    <row r="3" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F3" t="s">
+        <v>96</v>
+      </c>
+      <c r="I3" t="s">
+        <v>97</v>
+      </c>
+      <c r="J3" t="s">
+        <v>98</v>
+      </c>
+      <c r="M3" t="s">
+        <v>73</v>
+      </c>
+      <c r="N3" t="s">
+        <v>74</v>
+      </c>
+      <c r="T3" t="s">
+        <v>99</v>
+      </c>
+      <c r="U3" t="s">
+        <v>100</v>
+      </c>
+      <c r="V3" t="s">
+        <v>101</v>
+      </c>
+      <c r="W3" t="s">
+        <v>102</v>
+      </c>
+      <c r="X3" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>105</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>106</v>
+      </c>
+      <c r="AE3">
+        <v>49</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+      <c r="AH3">
+        <v>93</v>
+      </c>
+      <c r="AI3">
+        <v>93</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>107</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>108</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>109</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>110</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>111</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>112</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>113</v>
+      </c>
+      <c r="AR3" s="1">
+        <v>43344</v>
+      </c>
+      <c r="AS3">
+        <v>2018</v>
+      </c>
+      <c r="AT3">
+        <v>347</v>
+      </c>
+      <c r="AZ3">
+        <v>703</v>
+      </c>
+      <c r="BA3">
+        <v>710</v>
+      </c>
+      <c r="BC3" t="s">
+        <v>114</v>
+      </c>
+      <c r="BG3">
         <v>8</v>
       </c>
-      <c r="I2" s="2">
-        <v>9</v>
-      </c>
-      <c r="J2" s="2">
-        <v>10</v>
+      <c r="BH3" t="s">
+        <v>115</v>
+      </c>
+      <c r="BI3" t="s">
+        <v>116</v>
+      </c>
+      <c r="BJ3" t="s">
+        <v>117</v>
+      </c>
+      <c r="BK3" t="s">
+        <v>118</v>
+      </c>
+      <c r="BP3" s="2">
+        <v>43426</v>
+      </c>
+    </row>
+    <row r="4" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" t="s">
+        <v>119</v>
+      </c>
+      <c r="F4" t="s">
+        <v>120</v>
+      </c>
+      <c r="I4" t="s">
+        <v>121</v>
+      </c>
+      <c r="J4" t="s">
+        <v>98</v>
+      </c>
+      <c r="M4" t="s">
+        <v>73</v>
+      </c>
+      <c r="N4" t="s">
+        <v>74</v>
+      </c>
+      <c r="T4" t="s">
+        <v>122</v>
+      </c>
+      <c r="U4" t="s">
+        <v>123</v>
+      </c>
+      <c r="V4" t="s">
+        <v>124</v>
+      </c>
+      <c r="W4" t="s">
+        <v>125</v>
+      </c>
+      <c r="X4" t="s">
+        <v>126</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>127</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>128</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>129</v>
+      </c>
+      <c r="AE4">
+        <v>72</v>
+      </c>
+      <c r="AF4">
+        <v>3</v>
+      </c>
+      <c r="AG4">
+        <v>3</v>
+      </c>
+      <c r="AH4">
+        <v>104</v>
+      </c>
+      <c r="AI4">
+        <v>104</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>107</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>108</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>109</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>110</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>111</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>112</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>113</v>
+      </c>
+      <c r="AR4" s="1">
+        <v>43327</v>
+      </c>
+      <c r="AS4">
+        <v>2018</v>
+      </c>
+      <c r="AT4">
+        <v>346</v>
+      </c>
+      <c r="AZ4">
+        <v>567</v>
+      </c>
+      <c r="BA4">
+        <v>577</v>
+      </c>
+      <c r="BC4" t="s">
+        <v>130</v>
+      </c>
+      <c r="BG4">
+        <v>11</v>
+      </c>
+      <c r="BH4" t="s">
+        <v>115</v>
+      </c>
+      <c r="BI4" t="s">
+        <v>116</v>
+      </c>
+      <c r="BJ4" t="s">
+        <v>131</v>
+      </c>
+      <c r="BK4" t="s">
+        <v>132</v>
+      </c>
+      <c r="BP4" s="2">
+        <v>43426</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>